--- a/LubanTools/DesignerConfigs/Datas/Tourist_游客.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Tourist_游客.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\LubanTools\DesignerConfigs\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5431E98C-042E-4CFE-BC97-B56DB90497B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -269,9 +262,6 @@
     <t>zsEnum.Gender</t>
   </si>
   <si>
-    <t>ZSEnum.AgeGroup</t>
-  </si>
-  <si>
     <t>(list#sep=;),int</t>
   </si>
   <si>
@@ -612,19 +602,17 @@
   </si>
   <si>
     <t>2;8;12</t>
+  </si>
+  <si>
+    <t>zsEnum.AgeGroup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,147 +635,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,202 +652,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1004,319 +675,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1574,19 +959,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
@@ -1604,7 +990,7 @@
     <col min="18" max="18" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:21">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:21">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1734,7 +1120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:21">
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1793,7 +1179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:21">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1807,16 +1193,16 @@
         <v>45</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>44</v>
@@ -1831,7 +1217,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>44</v>
@@ -1846,13 +1232,13 @@
         <v>44</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
         <v>50</v>
       </c>
-      <c r="S4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -1866,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
         <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
       </c>
       <c r="H5">
         <v>1.04</v>
@@ -1887,7 +1273,7 @@
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>240</v>
@@ -1908,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -1925,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>0.96</v>
@@ -1946,7 +1332,7 @@
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>240</v>
@@ -1967,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
@@ -1984,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I7">
         <v>25</v>
@@ -2005,7 +1391,7 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>240</v>
@@ -2026,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -2043,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8">
         <v>0.96</v>
@@ -2064,7 +1450,7 @@
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>240</v>
@@ -2085,10 +1471,10 @@
         <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1005</v>
       </c>
@@ -2102,10 +1488,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>1.02</v>
@@ -2123,7 +1509,7 @@
         <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N9">
         <v>300</v>
@@ -2144,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1006</v>
       </c>
@@ -2161,10 +1547,10 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10">
         <v>0.99</v>
@@ -2182,7 +1568,7 @@
         <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N10">
         <v>300</v>
@@ -2203,10 +1589,10 @@
         <v>6</v>
       </c>
       <c r="U10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1007</v>
       </c>
@@ -2220,13 +1606,13 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I11">
         <v>30</v>
@@ -2241,7 +1627,7 @@
         <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11">
         <v>300</v>
@@ -2262,10 +1648,10 @@
         <v>7</v>
       </c>
       <c r="U11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1008</v>
       </c>
@@ -2279,10 +1665,10 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12">
         <v>0.83</v>
@@ -2300,7 +1686,7 @@
         <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>300</v>
@@ -2321,10 +1707,10 @@
         <v>8</v>
       </c>
       <c r="U12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1009</v>
       </c>
@@ -2338,13 +1724,13 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I13">
         <v>35</v>
@@ -2359,7 +1745,7 @@
         <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13">
         <v>360</v>
@@ -2380,10 +1766,10 @@
         <v>9</v>
       </c>
       <c r="U13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1010</v>
       </c>
@@ -2397,10 +1783,10 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14">
         <v>0.84</v>
@@ -2418,7 +1804,7 @@
         <v>60</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>360</v>
@@ -2439,10 +1825,10 @@
         <v>10</v>
       </c>
       <c r="U14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1011</v>
       </c>
@@ -2456,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15">
         <v>0.91</v>
@@ -2477,7 +1863,7 @@
         <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>360</v>
@@ -2498,10 +1884,10 @@
         <v>11</v>
       </c>
       <c r="U15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1012</v>
       </c>
@@ -2515,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16">
         <v>0.82</v>
@@ -2536,7 +1922,7 @@
         <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>360</v>
@@ -2557,10 +1943,10 @@
         <v>12</v>
       </c>
       <c r="U16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1013</v>
       </c>
@@ -2574,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17">
         <v>1.01</v>
@@ -2595,7 +1981,7 @@
         <v>65</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>420</v>
@@ -2616,10 +2002,10 @@
         <v>13</v>
       </c>
       <c r="U17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1014</v>
       </c>
@@ -2633,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18">
         <v>0.95</v>
@@ -2654,7 +2040,7 @@
         <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18">
         <v>420</v>
@@ -2675,10 +2061,10 @@
         <v>14</v>
       </c>
       <c r="U18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1015</v>
       </c>
@@ -2692,10 +2078,10 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19">
         <v>0.76</v>
@@ -2713,7 +2099,7 @@
         <v>65</v>
       </c>
       <c r="M19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N19">
         <v>420</v>
@@ -2734,10 +2120,10 @@
         <v>15</v>
       </c>
       <c r="U19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1016</v>
       </c>
@@ -2751,10 +2137,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20">
         <v>0.86</v>
@@ -2772,7 +2158,7 @@
         <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N20">
         <v>420</v>
@@ -2793,10 +2179,10 @@
         <v>16</v>
       </c>
       <c r="U20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1017</v>
       </c>
@@ -2810,13 +2196,13 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I21">
         <v>40</v>
@@ -2831,7 +2217,7 @@
         <v>65</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N21">
         <v>420</v>
@@ -2852,10 +2238,10 @@
         <v>17</v>
       </c>
       <c r="U21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1018</v>
       </c>
@@ -2869,10 +2255,10 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22">
         <v>0.71</v>
@@ -2890,7 +2276,7 @@
         <v>65</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N22">
         <v>420</v>
@@ -2911,10 +2297,10 @@
         <v>18</v>
       </c>
       <c r="U22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1019</v>
       </c>
@@ -2928,10 +2314,10 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23">
         <v>0.97</v>
@@ -2949,7 +2335,7 @@
         <v>65</v>
       </c>
       <c r="M23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N23">
         <v>420</v>
@@ -2970,10 +2356,10 @@
         <v>19</v>
       </c>
       <c r="U23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1020</v>
       </c>
@@ -2987,10 +2373,10 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H24">
         <v>1.19</v>
@@ -3008,7 +2394,7 @@
         <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N24">
         <v>420</v>
@@ -3026,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1021</v>
       </c>
@@ -3040,10 +2426,10 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25">
         <v>0.89</v>
@@ -3061,7 +2447,7 @@
         <v>65</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N25">
         <v>420</v>
@@ -3079,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1022</v>
       </c>
@@ -3093,10 +2479,10 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26">
         <v>0.84</v>
@@ -3114,7 +2500,7 @@
         <v>65</v>
       </c>
       <c r="M26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N26">
         <v>420</v>
@@ -3132,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1023</v>
       </c>
@@ -3146,10 +2532,10 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27">
         <v>0.7</v>
@@ -3167,7 +2553,7 @@
         <v>65</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N27">
         <v>420</v>
@@ -3185,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1024</v>
       </c>
@@ -3199,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28">
         <v>0.71</v>
@@ -3220,7 +2606,7 @@
         <v>65</v>
       </c>
       <c r="M28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N28">
         <v>420</v>
@@ -3238,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1025</v>
       </c>
@@ -3252,13 +2638,13 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H29">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I29">
         <v>40</v>
@@ -3273,7 +2659,7 @@
         <v>65</v>
       </c>
       <c r="M29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N29">
         <v>420</v>
@@ -3291,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1026</v>
       </c>
@@ -3305,10 +2691,10 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <v>1.05</v>
@@ -3326,7 +2712,7 @@
         <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N30">
         <v>420</v>
@@ -3344,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1027</v>
       </c>
@@ -3358,10 +2744,10 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31">
         <v>0.84</v>
@@ -3379,7 +2765,7 @@
         <v>65</v>
       </c>
       <c r="M31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N31">
         <v>420</v>
@@ -3397,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1028</v>
       </c>
@@ -3411,10 +2797,10 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32">
         <v>1.03</v>
@@ -3432,7 +2818,7 @@
         <v>65</v>
       </c>
       <c r="M32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N32">
         <v>420</v>
@@ -3450,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1029</v>
       </c>
@@ -3464,10 +2850,10 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H33">
         <v>0.8</v>
@@ -3485,7 +2871,7 @@
         <v>65</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N33">
         <v>420</v>
@@ -3503,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1030</v>
       </c>
@@ -3517,10 +2903,10 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34">
         <v>1.01</v>
@@ -3538,7 +2924,7 @@
         <v>65</v>
       </c>
       <c r="M34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N34">
         <v>420</v>
@@ -3556,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>1031</v>
       </c>
@@ -3570,10 +2956,10 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" t="s">
         <v>105</v>
-      </c>
-      <c r="G35" t="s">
-        <v>106</v>
       </c>
       <c r="H35">
         <v>1.03</v>
@@ -3591,7 +2977,7 @@
         <v>65</v>
       </c>
       <c r="M35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N35">
         <v>420</v>
@@ -3609,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>1032</v>
       </c>
@@ -3623,10 +3009,10 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36">
         <v>0.93</v>
@@ -3644,7 +3030,7 @@
         <v>65</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N36">
         <v>420</v>
@@ -3662,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1033</v>
       </c>
@@ -3676,10 +3062,10 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37">
         <v>1.03</v>
@@ -3697,7 +3083,7 @@
         <v>65</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N37">
         <v>420</v>
@@ -3715,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1034</v>
       </c>
@@ -3729,10 +3115,10 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38">
         <v>1.01</v>
@@ -3750,7 +3136,7 @@
         <v>65</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N38">
         <v>420</v>
@@ -3768,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>1035</v>
       </c>
@@ -3782,10 +3168,10 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H39">
         <v>1.05</v>
@@ -3803,7 +3189,7 @@
         <v>65</v>
       </c>
       <c r="M39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N39">
         <v>420</v>
@@ -3821,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>1036</v>
       </c>
@@ -3835,10 +3221,10 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H40">
         <v>0.9</v>
@@ -3856,7 +3242,7 @@
         <v>65</v>
       </c>
       <c r="M40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N40">
         <v>420</v>
@@ -3874,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>1037</v>
       </c>
@@ -3888,10 +3274,10 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H41">
         <v>1.07</v>
@@ -3909,7 +3295,7 @@
         <v>65</v>
       </c>
       <c r="M41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N41">
         <v>420</v>
@@ -3927,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>1038</v>
       </c>
@@ -3941,10 +3327,10 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H42">
         <v>0.76</v>
@@ -3962,7 +3348,7 @@
         <v>65</v>
       </c>
       <c r="M42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N42">
         <v>420</v>
@@ -3980,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1039</v>
       </c>
@@ -3994,10 +3380,10 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43">
         <v>0.86</v>
@@ -4015,7 +3401,7 @@
         <v>65</v>
       </c>
       <c r="M43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N43">
         <v>420</v>
@@ -4033,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>1040</v>
       </c>
@@ -4047,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H44">
         <v>0.99</v>
@@ -4068,7 +3454,7 @@
         <v>65</v>
       </c>
       <c r="M44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N44">
         <v>420</v>
@@ -4086,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>1041</v>
       </c>
@@ -4100,10 +3486,10 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H45">
         <v>0.97</v>
@@ -4121,7 +3507,7 @@
         <v>65</v>
       </c>
       <c r="M45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N45">
         <v>420</v>
@@ -4139,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>1042</v>
       </c>
@@ -4153,13 +3539,13 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H46">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I46">
         <v>40</v>
@@ -4174,7 +3560,7 @@
         <v>65</v>
       </c>
       <c r="M46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N46">
         <v>420</v>
@@ -4192,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>1043</v>
       </c>
@@ -4206,10 +3592,10 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H47">
         <v>0.88</v>
@@ -4227,7 +3613,7 @@
         <v>65</v>
       </c>
       <c r="M47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N47">
         <v>420</v>
@@ -4245,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1044</v>
       </c>
@@ -4259,10 +3645,10 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H48">
         <v>1.17</v>
@@ -4280,7 +3666,7 @@
         <v>65</v>
       </c>
       <c r="M48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N48">
         <v>420</v>
@@ -4298,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>1045</v>
       </c>
@@ -4312,10 +3698,10 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H49">
         <v>0.76</v>
@@ -4333,7 +3719,7 @@
         <v>65</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N49">
         <v>420</v>
@@ -4351,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>1046</v>
       </c>
@@ -4365,10 +3751,10 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H50">
         <v>0.74</v>
@@ -4386,7 +3772,7 @@
         <v>65</v>
       </c>
       <c r="M50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N50">
         <v>420</v>
@@ -4404,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>1047</v>
       </c>
@@ -4418,13 +3804,13 @@
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H51">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I51">
         <v>40</v>
@@ -4439,7 +3825,7 @@
         <v>65</v>
       </c>
       <c r="M51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N51">
         <v>420</v>
@@ -4457,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>1048</v>
       </c>
@@ -4471,10 +3857,10 @@
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H52">
         <v>1.03</v>
@@ -4492,7 +3878,7 @@
         <v>65</v>
       </c>
       <c r="M52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N52">
         <v>420</v>
@@ -4510,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>1049</v>
       </c>
@@ -4524,10 +3910,10 @@
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H53">
         <v>0.78</v>
@@ -4545,7 +3931,7 @@
         <v>65</v>
       </c>
       <c r="M53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N53">
         <v>420</v>
@@ -4563,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>1050</v>
       </c>
@@ -4577,10 +3963,10 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H54">
         <v>0.78</v>
@@ -4598,7 +3984,7 @@
         <v>65</v>
       </c>
       <c r="M54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N54">
         <v>420</v>
@@ -4616,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>1051</v>
       </c>
@@ -4630,10 +4016,10 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H55">
         <v>1.05</v>
@@ -4651,7 +4037,7 @@
         <v>65</v>
       </c>
       <c r="M55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N55">
         <v>420</v>
@@ -4669,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>1052</v>
       </c>
@@ -4683,13 +4069,13 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H56">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I56">
         <v>40</v>
@@ -4704,7 +4090,7 @@
         <v>65</v>
       </c>
       <c r="M56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N56">
         <v>420</v>
@@ -4722,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>1053</v>
       </c>
@@ -4736,13 +4122,13 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H57">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I57">
         <v>40</v>
@@ -4757,7 +4143,7 @@
         <v>65</v>
       </c>
       <c r="M57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N57">
         <v>420</v>
@@ -4775,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>1054</v>
       </c>
@@ -4789,10 +4175,10 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H58">
         <v>0.89</v>
@@ -4810,7 +4196,7 @@
         <v>65</v>
       </c>
       <c r="M58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N58">
         <v>420</v>
@@ -4828,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>1055</v>
       </c>
@@ -4842,10 +4228,10 @@
         <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H59">
         <v>0.98</v>
@@ -4863,7 +4249,7 @@
         <v>65</v>
       </c>
       <c r="M59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N59">
         <v>420</v>
@@ -4881,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>1056</v>
       </c>
@@ -4895,10 +4281,10 @@
         <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H60">
         <v>1.2</v>
@@ -4916,7 +4302,7 @@
         <v>65</v>
       </c>
       <c r="M60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N60">
         <v>420</v>
@@ -4934,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>1057</v>
       </c>
@@ -4948,10 +4334,10 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H61">
         <v>1.17</v>
@@ -4969,7 +4355,7 @@
         <v>65</v>
       </c>
       <c r="M61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N61">
         <v>420</v>
@@ -4987,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:18">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>1058</v>
       </c>
@@ -5001,10 +4387,10 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H62">
         <v>0.77</v>
@@ -5022,7 +4408,7 @@
         <v>65</v>
       </c>
       <c r="M62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N62">
         <v>420</v>
@@ -5040,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:18">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>1059</v>
       </c>
@@ -5054,10 +4440,10 @@
         <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H63">
         <v>1.18</v>
@@ -5075,7 +4461,7 @@
         <v>65</v>
       </c>
       <c r="M63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N63">
         <v>420</v>
@@ -5093,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:18">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>1060</v>
       </c>
@@ -5107,10 +4493,10 @@
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H64">
         <v>0.99</v>
@@ -5128,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="M64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N64">
         <v>420</v>
@@ -5146,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:18">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>1061</v>
       </c>
@@ -5160,10 +4546,10 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H65">
         <v>0.88</v>
@@ -5181,7 +4567,7 @@
         <v>65</v>
       </c>
       <c r="M65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N65">
         <v>420</v>
@@ -5199,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:18">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>1062</v>
       </c>
@@ -5213,10 +4599,10 @@
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H66">
         <v>0.97</v>
@@ -5234,7 +4620,7 @@
         <v>65</v>
       </c>
       <c r="M66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N66">
         <v>420</v>
@@ -5252,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:18">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>1063</v>
       </c>
@@ -5266,10 +4652,10 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H67">
         <v>0.95</v>
@@ -5287,7 +4673,7 @@
         <v>65</v>
       </c>
       <c r="M67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N67">
         <v>420</v>
@@ -5305,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:18">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>1064</v>
       </c>
@@ -5319,10 +4705,10 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H68">
         <v>1.01</v>
@@ -5340,7 +4726,7 @@
         <v>65</v>
       </c>
       <c r="M68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N68">
         <v>420</v>
@@ -5358,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:18">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>1065</v>
       </c>
@@ -5372,10 +4758,10 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H69">
         <v>0.79</v>
@@ -5393,7 +4779,7 @@
         <v>65</v>
       </c>
       <c r="M69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N69">
         <v>420</v>
@@ -5411,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:18">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>1066</v>
       </c>
@@ -5425,10 +4811,10 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H70">
         <v>1.08</v>
@@ -5446,7 +4832,7 @@
         <v>65</v>
       </c>
       <c r="M70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N70">
         <v>420</v>
@@ -5464,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:18">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>1067</v>
       </c>
@@ -5478,10 +4864,10 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H71">
         <v>0.79</v>
@@ -5499,7 +4885,7 @@
         <v>65</v>
       </c>
       <c r="M71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N71">
         <v>420</v>
@@ -5517,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:18">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>1068</v>
       </c>
@@ -5531,10 +4917,10 @@
         <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H72">
         <v>1.07</v>
@@ -5552,7 +4938,7 @@
         <v>65</v>
       </c>
       <c r="M72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N72">
         <v>420</v>
@@ -5570,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:18">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>1069</v>
       </c>
@@ -5584,10 +4970,10 @@
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H73">
         <v>0.74</v>
@@ -5605,7 +4991,7 @@
         <v>65</v>
       </c>
       <c r="M73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N73">
         <v>420</v>
@@ -5623,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:18">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>1070</v>
       </c>
@@ -5637,13 +5023,13 @@
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H74">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I74">
         <v>40</v>
@@ -5658,7 +5044,7 @@
         <v>65</v>
       </c>
       <c r="M74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N74">
         <v>420</v>
@@ -5676,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:18">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>1071</v>
       </c>
@@ -5690,10 +5076,10 @@
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H75">
         <v>0.75</v>
@@ -5711,7 +5097,7 @@
         <v>65</v>
       </c>
       <c r="M75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N75">
         <v>420</v>
@@ -5729,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:18">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>1072</v>
       </c>
@@ -5743,13 +5129,13 @@
         <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H76">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I76">
         <v>40</v>
@@ -5764,7 +5150,7 @@
         <v>65</v>
       </c>
       <c r="M76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N76">
         <v>420</v>
@@ -5782,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:18">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>1073</v>
       </c>
@@ -5796,10 +5182,10 @@
         <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H77">
         <v>0.92</v>
@@ -5817,7 +5203,7 @@
         <v>65</v>
       </c>
       <c r="M77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N77">
         <v>420</v>
@@ -5835,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:18">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>1074</v>
       </c>
@@ -5849,10 +5235,10 @@
         <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H78">
         <v>0.92</v>
@@ -5870,7 +5256,7 @@
         <v>65</v>
       </c>
       <c r="M78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N78">
         <v>420</v>
@@ -5888,7 +5274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:18">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>1075</v>
       </c>
@@ -5902,10 +5288,10 @@
         <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H79">
         <v>0.85</v>
@@ -5923,7 +5309,7 @@
         <v>65</v>
       </c>
       <c r="M79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N79">
         <v>420</v>
@@ -5941,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:18">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>1076</v>
       </c>
@@ -5955,10 +5341,10 @@
         <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H80">
         <v>1.01</v>
@@ -5976,7 +5362,7 @@
         <v>65</v>
       </c>
       <c r="M80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N80">
         <v>420</v>
@@ -5994,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:18">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>1077</v>
       </c>
@@ -6008,10 +5394,10 @@
         <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H81">
         <v>0.9</v>
@@ -6029,7 +5415,7 @@
         <v>65</v>
       </c>
       <c r="M81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N81">
         <v>420</v>
@@ -6047,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:18">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>1078</v>
       </c>
@@ -6061,10 +5447,10 @@
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H82">
         <v>1.04</v>
@@ -6082,7 +5468,7 @@
         <v>65</v>
       </c>
       <c r="M82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N82">
         <v>420</v>
@@ -6100,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:18">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>1079</v>
       </c>
@@ -6114,10 +5500,10 @@
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H83">
         <v>1.08</v>
@@ -6135,7 +5521,7 @@
         <v>65</v>
       </c>
       <c r="M83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N83">
         <v>420</v>
@@ -6153,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:18">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>1080</v>
       </c>
@@ -6167,10 +5553,10 @@
         <v>4</v>
       </c>
       <c r="F84" t="s">
+        <v>144</v>
+      </c>
+      <c r="G84" t="s">
         <v>145</v>
-      </c>
-      <c r="G84" t="s">
-        <v>146</v>
       </c>
       <c r="H84">
         <v>0.98</v>
@@ -6188,7 +5574,7 @@
         <v>65</v>
       </c>
       <c r="M84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N84">
         <v>420</v>
@@ -6206,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:18">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>1081</v>
       </c>
@@ -6220,10 +5606,10 @@
         <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H85">
         <v>1.2</v>
@@ -6241,7 +5627,7 @@
         <v>65</v>
       </c>
       <c r="M85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N85">
         <v>420</v>
@@ -6259,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:18">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>1082</v>
       </c>
@@ -6273,13 +5659,13 @@
         <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H86">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I86">
         <v>40</v>
@@ -6294,7 +5680,7 @@
         <v>65</v>
       </c>
       <c r="M86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N86">
         <v>420</v>
@@ -6312,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:18">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>1083</v>
       </c>
@@ -6326,10 +5712,10 @@
         <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H87">
         <v>0.89</v>
@@ -6347,7 +5733,7 @@
         <v>65</v>
       </c>
       <c r="M87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N87">
         <v>420</v>
@@ -6365,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:18">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>1084</v>
       </c>
@@ -6379,10 +5765,10 @@
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H88">
         <v>0.77</v>
@@ -6400,7 +5786,7 @@
         <v>65</v>
       </c>
       <c r="M88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N88">
         <v>420</v>
@@ -6418,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:18">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>1085</v>
       </c>
@@ -6432,13 +5818,13 @@
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H89">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I89">
         <v>40</v>
@@ -6453,7 +5839,7 @@
         <v>65</v>
       </c>
       <c r="M89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N89">
         <v>420</v>
@@ -6471,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:18">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>1086</v>
       </c>
@@ -6485,10 +5871,10 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H90">
         <v>0.89</v>
@@ -6506,7 +5892,7 @@
         <v>65</v>
       </c>
       <c r="M90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N90">
         <v>420</v>
@@ -6524,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:18">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>1087</v>
       </c>
@@ -6538,10 +5924,10 @@
         <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H91">
         <v>0.95</v>
@@ -6559,7 +5945,7 @@
         <v>65</v>
       </c>
       <c r="M91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N91">
         <v>420</v>
@@ -6577,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:18">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>1088</v>
       </c>
@@ -6591,10 +5977,10 @@
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H92">
         <v>1.17</v>
@@ -6612,7 +5998,7 @@
         <v>65</v>
       </c>
       <c r="M92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N92">
         <v>420</v>
@@ -6630,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:18">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>1089</v>
       </c>
@@ -6644,10 +6030,10 @@
         <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H93">
         <v>0.72</v>
@@ -6665,7 +6051,7 @@
         <v>65</v>
       </c>
       <c r="M93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N93">
         <v>420</v>
@@ -6683,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:18">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>1090</v>
       </c>
@@ -6697,10 +6083,10 @@
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H94">
         <v>0.94</v>
@@ -6718,7 +6104,7 @@
         <v>65</v>
       </c>
       <c r="M94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N94">
         <v>420</v>
@@ -6736,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:18">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>1091</v>
       </c>
@@ -6750,10 +6136,10 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -6771,7 +6157,7 @@
         <v>65</v>
       </c>
       <c r="M95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N95">
         <v>420</v>
@@ -6789,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:18">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>1092</v>
       </c>
@@ -6803,10 +6189,10 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H96">
         <v>1.04</v>
@@ -6824,7 +6210,7 @@
         <v>65</v>
       </c>
       <c r="M96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N96">
         <v>420</v>
@@ -6842,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:18">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>1093</v>
       </c>
@@ -6856,10 +6242,10 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H97">
         <v>0.71</v>
@@ -6877,7 +6263,7 @@
         <v>65</v>
       </c>
       <c r="M97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N97">
         <v>420</v>
@@ -6895,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:18">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>1094</v>
       </c>
@@ -6909,13 +6295,13 @@
         <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H98">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I98">
         <v>40</v>
@@ -6930,7 +6316,7 @@
         <v>65</v>
       </c>
       <c r="M98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N98">
         <v>420</v>
@@ -6948,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:18">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>1095</v>
       </c>
@@ -6962,10 +6348,10 @@
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H99">
         <v>0.8</v>
@@ -6983,7 +6369,7 @@
         <v>65</v>
       </c>
       <c r="M99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N99">
         <v>420</v>
@@ -7001,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:18">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>1096</v>
       </c>
@@ -7015,10 +6401,10 @@
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H100">
         <v>0.72</v>
@@ -7036,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="M100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N100">
         <v>420</v>
@@ -7054,7 +6440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:18">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>1097</v>
       </c>
@@ -7068,10 +6454,10 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H101">
         <v>0.75</v>
@@ -7089,7 +6475,7 @@
         <v>65</v>
       </c>
       <c r="M101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N101">
         <v>420</v>
@@ -7107,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:18">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>1098</v>
       </c>
@@ -7121,10 +6507,10 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H102">
         <v>0.8</v>
@@ -7142,7 +6528,7 @@
         <v>65</v>
       </c>
       <c r="M102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N102">
         <v>420</v>
@@ -7160,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:18">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>1099</v>
       </c>
@@ -7174,10 +6560,10 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H103">
         <v>0.74</v>
@@ -7195,7 +6581,7 @@
         <v>65</v>
       </c>
       <c r="M103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N103">
         <v>420</v>
@@ -7213,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:18">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>1100</v>
       </c>
@@ -7227,10 +6613,10 @@
         <v>4</v>
       </c>
       <c r="F104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H104">
         <v>1.01</v>
@@ -7248,7 +6634,7 @@
         <v>65</v>
       </c>
       <c r="M104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N104">
         <v>420</v>
@@ -7267,9 +6653,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>